--- a/data/trans_dic/P33b_R1-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R1-Habitat-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,53; 17,23</t>
+          <t>5,54; 17,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,74; 25,02</t>
+          <t>14,45; 24,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,7; 19,66</t>
+          <t>11,81; 19,46</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,8; 19,03</t>
+          <t>12,66; 18,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,61; 28,42</t>
+          <t>22,61; 28,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,69; 22,86</t>
+          <t>18,71; 22,95</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,33; 13,6</t>
+          <t>8,97; 13,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,71; 23,12</t>
+          <t>18,68; 22,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,3; 17,73</t>
+          <t>14,59; 17,86</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,94; 14,06</t>
+          <t>9,08; 14,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,78; 17,74</t>
+          <t>9,32; 17,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,98; 15,0</t>
+          <t>10,38; 15,33</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,98; 17,81</t>
+          <t>12,99; 17,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,51; 25,15</t>
+          <t>20,4; 25,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,67; 21,02</t>
+          <t>17,73; 20,94</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,96; 14,37</t>
+          <t>11,89; 14,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,54; 21,91</t>
+          <t>18,66; 21,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,01; 18,06</t>
+          <t>16,06; 18,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R1-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R1-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P33b_R1-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R1-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,54; 17,48</t>
+          <t>5,53; 17,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,45; 24,39</t>
+          <t>14,74; 25,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,81; 19,46</t>
+          <t>11,7; 19,66</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,66; 18,93</t>
+          <t>12,8; 19,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,61; 28,52</t>
+          <t>22,61; 28,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,71; 22,95</t>
+          <t>18,69; 22,86</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,97; 13,45</t>
+          <t>9,33; 13,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,68; 22,93</t>
+          <t>18,71; 23,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,59; 17,86</t>
+          <t>14,3; 17,73</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,08; 14,32</t>
+          <t>8,94; 14,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,32; 17,82</t>
+          <t>9,78; 17,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,38; 15,33</t>
+          <t>9,98; 15,0</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,99; 17,72</t>
+          <t>12,98; 17,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,4; 25,18</t>
+          <t>20,51; 25,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,73; 20,94</t>
+          <t>17,67; 21,02</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,89; 14,36</t>
+          <t>11,96; 14,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,66; 21,94</t>
+          <t>18,54; 21,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,06; 18,08</t>
+          <t>16,01; 18,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R1-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R1-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>14,47%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>23,91%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>19,34%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>15,45%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,53; 17,23</t>
+          <t>11,98; 17,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,74; 25,02</t>
+          <t>21,44; 26,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,7; 19,66</t>
+          <t>17,56; 21,21</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>25,41%</t>
+          <t>20,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>14,26%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,8; 19,03</t>
+          <t>4,64; 12,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,61; 28,42</t>
+          <t>18,53; 22,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,69; 22,86</t>
+          <t>9,93; 16,66</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>11,71%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,33; 13,6</t>
+          <t>8,59; 13,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,71; 23,12</t>
+          <t>6,6; 16,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,3; 17,73</t>
+          <t>7,46; 14,0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>18,36%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,94; 14,06</t>
+          <t>12,75; 17,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,78; 17,74</t>
+          <t>17,38; 23,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,98; 15,0</t>
+          <t>16,17; 20,19</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>19,29%</t>
+          <t>15,77%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,98; 17,81</t>
+          <t>9,46; 13,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,51; 25,15</t>
+          <t>15,69; 21,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,67; 21,02</t>
+          <t>13,66; 17,03</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>13,1%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>20,62%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>17,08%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>11,96; 14,37</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>18,54; 21,91</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>16,01; 18,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P33b_R1-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R1-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,98; 17,46</t>
+          <t>11,93; 17,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,44; 26,42</t>
+          <t>21,7; 26,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,56; 21,21</t>
+          <t>17,59; 21,1</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,64; 12,32</t>
+          <t>4,66; 12,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,53; 22,93</t>
+          <t>18,69; 22,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,93; 16,66</t>
+          <t>9,55; 16,54</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,59; 13,96</t>
+          <t>8,27; 13,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,6; 16,72</t>
+          <t>6,63; 16,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,46; 14,0</t>
+          <t>7,82; 14,06</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,75; 17,64</t>
+          <t>12,69; 17,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,38; 23,94</t>
+          <t>16,95; 23,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,17; 20,19</t>
+          <t>16,23; 20,22</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,46; 13,46</t>
+          <t>9,61; 13,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,69; 21,07</t>
+          <t>15,57; 20,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,66; 17,03</t>
+          <t>13,67; 16,9</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene dificultad para dormirse por la noche</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>91794</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>161385</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>253179</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>75699; 110143</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>146415; 180237</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>230360; 276323</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>109568</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>197229</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>306798</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>55551; 145616</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>179102; 218821</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>205402; 355725</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>76236</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>115523</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>191758</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>58281; 95770</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>61856; 158095</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>128145; 230306</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>138645</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>231923</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>370568</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>117606; 162321</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>185079; 259338</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>327582; 408310</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1738</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>416243</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>706060</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1122303</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>332455; 465747</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>569558; 767656</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>972934; 1202938</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>